--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_69.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_69.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Yuta Nishimura</t>
+          <t>Takuma Ogawa</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Yuta Nishimura</t>
+          <t>Takuma Ogawa</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Yuta Nishimura</t>
+          <t>Takuma Ogawa</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Yuta Nishimura</t>
+          <t>Takuma Ogawa</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Yuta Nishimura</t>
+          <t>Takuma Ogawa</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Yuta Nishimura</t>
+          <t>Takuma Ogawa</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Yuta Nishimura</t>
+          <t>Takuma Ogawa</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Yuta Nishimura</t>
+          <t>Takuma Ogawa</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Yuta Nishimura</t>
+          <t>Takuma Ogawa</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Yuta Nishimura</t>
+          <t>Takuma Ogawa</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Yuta Nishimura</t>
+          <t>Takuma Ogawa</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Yuta Nishimura</t>
+          <t>Takuma Ogawa</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Yuta Nishimura</t>
+          <t>Takuma Ogawa</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Yuta Nishimura</t>
+          <t>Takuma Ogawa</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Yuta Nishimura</t>
+          <t>Takuma Ogawa</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
